--- a/UnitTests/Tests/VanillaSwap.xlsx
+++ b/UnitTests/Tests/VanillaSwap.xlsx
@@ -575,7 +575,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D22" si="0">IF(B3=C3,"PASS","FAIL")</f>
+        <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
       <c r="E3" t="str">
@@ -598,7 +598,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D22" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
       <c r="E4" t="str">
@@ -658,7 +658,7 @@
       </c>
       <c r="G7" t="str">
         <f>_xll.qlBlackConstantVol(,I14,"target",5,"actual/360")</f>
-        <v>obj_0001a#0000</v>
+        <v>obj_000df#0000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
       </c>
       <c r="G8" t="str">
         <f>_xll.qlGeneralizedBlackScholesProcess(,G7,5,"actual/360",I14,5,5)</f>
-        <v>obj_0001b#0000</v>
+        <v>obj_000e1#0000</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -704,7 +704,7 @@
       </c>
       <c r="G9" t="str">
         <f>_xll.qlSchedule(,I13,I17,"1Y","target","mf","mf","backward")</f>
-        <v>obj_00014#0000</v>
+        <v>obj_000db#0000</v>
       </c>
       <c r="I9" s="4">
         <f>_xll.qlSettingsEvaluationDate()</f>
@@ -731,7 +731,7 @@
       </c>
       <c r="G10" t="str">
         <f>_xll.qlSchedule(,I13,I17,"6M","target","mf","mf","backward")</f>
-        <v>obj_00015#0000</v>
+        <v>obj_000dc#0000</v>
       </c>
       <c r="I10" s="4">
         <f>I9+1</f>
@@ -758,7 +758,7 @@
       </c>
       <c r="G11" s="5" t="str">
         <f>_xll.qlIborIndex(,"euribor","1Y",2,"eur","target","modified following",TRUE,"actual/360",G13)</f>
-        <v>obj_0000e#0000</v>
+        <v>obj_000d4#0000</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" ref="I11:I14" si="1">I10+1</f>
@@ -785,7 +785,7 @@
       </c>
       <c r="G12" t="str">
         <f>_xll.qlDiscountingSwapEngine(,G13)</f>
-        <v>obj_00012#0000</v>
+        <v>obj_000d6#0000</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="1"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="G13" t="str">
         <f>_xll.qlFlatForward(,2,"nullcalendar",5)</f>
-        <v>obj_0000d#0000</v>
+        <v>obj_000d3#0000</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="1"/>
@@ -839,7 +839,7 @@
       </c>
       <c r="G14" t="str">
         <f>_xll.qlSwapIndex(,"euribor","1Y",2,"eur","target","1Y","MF","actual/360",G11,G13)</f>
-        <v>obj_00010#0000</v>
+        <v>obj_000d5#0000</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="1"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="G15" t="str">
         <f>_xll.qlSwapRateHelper(,5,G14,5,"1Y",G13,"maturitydate")</f>
-        <v>obj_00011#0000</v>
+        <v>obj_000d8#0000</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
       </c>
       <c r="G17" t="str">
         <f>_xll.qlEuribor(,"6M",G13)</f>
-        <v>obj_0000f#0000</v>
+        <v>obj_000d7#0000</v>
       </c>
       <c r="I17" s="4">
         <f>_xll.qlCalendarAdvance("target",I9,"1Y")</f>

--- a/UnitTests/Tests/VanillaSwap.xlsx
+++ b/UnitTests/Tests/VanillaSwap.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\reposit\QuantLibXL\UnitTests\Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="120" windowWidth="14700" windowHeight="12525"/>
+    <workbookView xWindow="75" yWindow="120" windowWidth="14700" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="UNIT_TEST" localSheetId="0">Sheet1!$A$3:$E$22</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -168,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,12 +232,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -274,7 +282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,9 +315,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,6 +367,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,7 +559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I22"/>
   <sheetViews>
@@ -526,7 +568,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -578,16 +620,16 @@
         <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E3" t="str">
-        <f>_xll.qlVanillaSwap("vs01","payer",1000000,G9,5,"30/360 (bond basis)",G10,G17,0,"actual/360","following")</f>
-        <v>vs01#0000</v>
+      <c r="E3" t="e">
+        <f ca="1">_xll.qlVanillaSwap("vs01","payer",1000000,G9,5,"30/360 (bond basis)",G10,G17,0,"actual/360","following")</f>
+        <v>#NAME?</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="G3" t="b">
-        <f>_xll.qlInstrumentSetPricingEngine(E3,G12)</f>
-        <v>1</v>
+      <c r="G3" t="e">
+        <f ca="1">_xll.qlInstrumentSetPricingEngine(E3,G12)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -601,9 +643,9 @@
         <f t="shared" ref="D4:D22" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E4" t="str">
-        <f>_xll.qlMakeVanillaSwap("vs02",2,"1Y",G11,5,"1Y","actual/360",5,G12)</f>
-        <v>vs02#0000</v>
+      <c r="E4" t="e">
+        <f ca="1">_xll.qlMakeVanillaSwap("vs02",2,"1Y",G11,5,"1Y","actual/360",5,G12)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -617,9 +659,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E5" t="str">
-        <f>_xll.qlMakeIMMSwap("vs03","1Y",G11,5,,"actual/360",5,+G12)</f>
-        <v>vs03#0000</v>
+      <c r="E5" t="e">
+        <f ca="1">_xll.qlMakeIMMSwap("vs03","1Y",G11,5,,"actual/360",5,+G12)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -633,9 +675,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E6" t="str">
-        <f>_xll.qlVanillaSwapFromSwapIndex("vs04",G14,I14)</f>
-        <v>vs04#0000</v>
+      <c r="E6" t="e">
+        <f ca="1">_xll.qlVanillaSwapFromSwapIndex("vs04",G14,I14)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -649,16 +691,16 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E7" t="str">
-        <f>_xll.qlVanillaSwapFromSwapRateHelper("vs05",G15)</f>
-        <v>vs05#0000</v>
+      <c r="E7" t="e">
+        <f ca="1">_xll.qlVanillaSwapFromSwapRateHelper("vs05",G15)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="str">
-        <f>_xll.qlBlackConstantVol(,I14,"target",5,"actual/360")</f>
-        <v>obj_000df#0000</v>
+      <c r="G7" t="e">
+        <f ca="1">_xll.qlBlackConstantVol(,I14,"target",5,"actual/360")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -672,16 +714,16 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E8">
-        <f>_xll.qlVanillaSwapFixedLegBPS(E3,G3)</f>
-        <v>-0.67739587129550227</v>
+      <c r="E8" t="e">
+        <f ca="1">_xll.qlVanillaSwapFixedLegBPS(E3,G3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="G8" t="str">
-        <f>_xll.qlGeneralizedBlackScholesProcess(,G7,5,"actual/360",I14,5,5)</f>
-        <v>obj_000e1#0000</v>
+      <c r="G8" t="e">
+        <f ca="1">_xll.qlGeneralizedBlackScholesProcess(,G7,5,"actual/360",I14,5,5)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -695,20 +737,20 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E9">
-        <f>_xll.qlVanillaSwapFixedLegNPV(E3,G3)</f>
-        <v>-33869.793564775115</v>
+      <c r="E9" t="e">
+        <f ca="1">_xll.qlVanillaSwapFixedLegNPV(E3,G3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" t="str">
-        <f>_xll.qlSchedule(,I13,I17,"1Y","target","mf","mf","backward")</f>
-        <v>obj_000db#0000</v>
-      </c>
-      <c r="I9" s="4">
-        <f>_xll.qlSettingsEvaluationDate()</f>
-        <v>42644</v>
+      <c r="G9" t="e">
+        <f ca="1">_xll.qlSchedule(,I13,I17,"1Y","target","mf","mf","backward")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I9" s="4" t="e">
+        <f ca="1">_xll.qlSettingsEvaluationDate()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -722,20 +764,20 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E10">
-        <f>_xll.qlVanillaSwapFairRate(E3,G3)</f>
-        <v>142.62616569880501</v>
+      <c r="E10" t="e">
+        <f ca="1">_xll.qlVanillaSwapFairRate(E3,G3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
       </c>
-      <c r="G10" t="str">
-        <f>_xll.qlSchedule(,I13,I17,"6M","target","mf","mf","backward")</f>
-        <v>obj_000dc#0000</v>
-      </c>
-      <c r="I10" s="4">
-        <f>I9+1</f>
-        <v>42645</v>
+      <c r="G10" t="e">
+        <f ca="1">_xll.qlSchedule(,I13,I17,"6M","target","mf","mf","backward")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I10" s="4" t="e">
+        <f ca="1">I9+1</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -749,20 +791,20 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E11">
-        <f>_xll.qlVanillaSwapFloatingLegBPS(E3,G3)</f>
-        <v>4.477796795487806</v>
+      <c r="E11" t="e">
+        <f ca="1">_xll.qlVanillaSwapFloatingLegBPS(E3,G3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F11" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="5" t="str">
-        <f>_xll.qlIborIndex(,"euribor","1Y",2,"eur","target","modified following",TRUE,"actual/360",G13)</f>
-        <v>obj_000d4#0000</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" ref="I11:I14" si="1">I10+1</f>
-        <v>42646</v>
+      <c r="G11" s="5" t="e">
+        <f ca="1">_xll.qlIborIndex(,"euribor","1Y",2,"eur","target","modified following",TRUE,"actual/360",G13)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I11" s="4" t="e">
+        <f t="shared" ref="I11:I14" ca="1" si="1">I10+1</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -776,20 +818,20 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E12">
-        <f>_xll.qlVanillaSwapFloatingLegNPV(E3,G3)</f>
-        <v>966143.7578307871</v>
+      <c r="E12" t="e">
+        <f ca="1">_xll.qlVanillaSwapFloatingLegNPV(E3,G3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F12" t="s">
         <v>29</v>
       </c>
-      <c r="G12" t="str">
-        <f>_xll.qlDiscountingSwapEngine(,G13)</f>
-        <v>obj_000d6#0000</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="1"/>
-        <v>42647</v>
+      <c r="G12" t="e">
+        <f ca="1">_xll.qlDiscountingSwapEngine(,G13)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I12" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -803,20 +845,20 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E13">
-        <f>_xll.qlVanillaSwapFairSpread(E3,G3)</f>
-        <v>-20.819925665350592</v>
+      <c r="E13" t="e">
+        <f ca="1">_xll.qlVanillaSwapFairSpread(E3,G3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
       </c>
-      <c r="G13" t="str">
-        <f>_xll.qlFlatForward(,2,"nullcalendar",5)</f>
-        <v>obj_000d3#0000</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="1"/>
-        <v>42648</v>
+      <c r="G13" t="e">
+        <f ca="1">_xll.qlFlatForward(,2,"nullcalendar",5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I13" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -830,20 +872,20 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E14" t="str">
-        <f>_xll.qlVanillaSwapType(E3,G3)</f>
-        <v>Payer</v>
+      <c r="E14" t="e">
+        <f ca="1">_xll.qlVanillaSwapType(E3,G3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="G14" t="str">
-        <f>_xll.qlSwapIndex(,"euribor","1Y",2,"eur","target","1Y","MF","actual/360",G11,G13)</f>
-        <v>obj_000d5#0000</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="1"/>
-        <v>42649</v>
+      <c r="G14" t="e">
+        <f ca="1">_xll.qlSwapIndex(,"euribor","1Y",2,"eur","target","1Y","MF","actual/360",G11,G13)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I14" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -857,16 +899,16 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E15">
-        <f>_xll.qlVanillaSwapNominal(E3,G3)</f>
-        <v>1000000</v>
+      <c r="E15" t="e">
+        <f ca="1">_xll.qlVanillaSwapNominal(E3,G3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="F15" t="s">
         <v>32</v>
       </c>
-      <c r="G15" t="str">
-        <f>_xll.qlSwapRateHelper(,5,G14,5,"1Y",G13,"maturitydate")</f>
-        <v>obj_000d8#0000</v>
+      <c r="G15" t="e">
+        <f ca="1">_xll.qlSwapRateHelper(,5,G14,5,"1Y",G13,"maturitydate")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -880,9 +922,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E16">
-        <f>_xll.qlVanillaSwapFixedRate(E3,G3)</f>
-        <v>5</v>
+      <c r="E16" t="e">
+        <f ca="1">_xll.qlVanillaSwapFixedRate(E3,G3)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -896,17 +938,17 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E17" t="str">
-        <f>_xll.qlVanillaSwapFixedDayCount(E3,G3)</f>
-        <v>30/360 (Bond Basis)</v>
-      </c>
-      <c r="G17" t="str">
-        <f>_xll.qlEuribor(,"6M",G13)</f>
-        <v>obj_000d7#0000</v>
-      </c>
-      <c r="I17" s="4">
-        <f>_xll.qlCalendarAdvance("target",I9,"1Y")</f>
-        <v>43010</v>
+      <c r="E17" t="e">
+        <f ca="1">_xll.qlVanillaSwapFixedDayCount(E3,G3)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G17" t="e">
+        <f ca="1">_xll.qlEuribor(,"6M",G13)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I17" s="4" t="e">
+        <f ca="1">_xll.qlCalendarAdvance("target",I9,"1Y")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -920,9 +962,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E18">
-        <f>_xll.qlVanillaSwapSpread(E3,G3)</f>
-        <v>0</v>
+      <c r="E18" t="e">
+        <f ca="1">_xll.qlVanillaSwapSpread(E3,G3)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -936,9 +978,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E19" t="str">
-        <f>_xll.qlVanillaSwapFloatingDayCount(E3,G3)</f>
-        <v>Actual/360</v>
+      <c r="E19" t="e">
+        <f ca="1">_xll.qlVanillaSwapFloatingDayCount(E3,G3)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -952,9 +994,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E20" t="str">
-        <f>_xll.qlVanillaSwapPaymentConvention(E3,G3)</f>
-        <v>Following</v>
+      <c r="E20" t="e">
+        <f ca="1">_xll.qlVanillaSwapPaymentConvention(E3,G3)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -968,9 +1010,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E21" t="str">
-        <f>_xll.qlVanillaSwapFixedLegAnalysis(E3,I14,G3)</f>
-        <v>Payment Date</v>
+      <c r="E21" t="e">
+        <f ca="1">_xll.qlVanillaSwapFixedLegAnalysis(E3,I14,G3)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -984,9 +1026,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E22" t="str">
-        <f>_xll.qlVanillaSwapFloatingLegAnalysis(E3,I14,G3)</f>
-        <v>Payment Date</v>
+      <c r="E22" t="e">
+        <f ca="1">_xll.qlVanillaSwapFloatingLegAnalysis(E3,I14,G3)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -996,26 +1038,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
